--- a/TurnoverCards/turnCardsEarlyCompose.xlsx
+++ b/TurnoverCards/turnCardsEarlyCompose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TurnoverCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05973CE3-F8C5-4047-98F9-15455EAA0570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E25EDB-4CAA-274B-BA2C-D94D155DE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1320" yWindow="-21100" windowWidth="34760" windowHeight="19320" xr2:uid="{D1F1F4B5-67F7-654C-AAE6-2EE11D827AC0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>compose_lv</t>
   </si>
@@ -84,24 +84,27 @@
     <t>3张紫卡1张橙卡 2个2级球 2个1级金币</t>
   </si>
   <si>
-    <t>3张紫卡  1个2级球 1个1级球</t>
-  </si>
-  <si>
-    <t>3张紫卡  2个1级球</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3张紫卡  2个2级球 </t>
+    <t>3张紫卡 2个2级金币</t>
+  </si>
+  <si>
+    <t>3张紫卡 1个2级金币，1个1级金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -215,6 +218,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,15 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,24 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB0727-F1DC-A14A-806C-8711D1F34E82}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -607,51 +611,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="16" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="10" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="19" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="10" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="22" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="1">
@@ -844,625 +848,536 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2">
-        <v>5</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>2</v>
-      </c>
-      <c r="V4" s="5">
-        <v>5</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="6">
+      <c r="C4" s="25">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25">
+        <v>3</v>
+      </c>
+      <c r="G4" s="25">
+        <v>2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>3</v>
+      </c>
+      <c r="J4" s="25">
+        <v>4</v>
+      </c>
+      <c r="K4" s="25">
+        <v>3</v>
+      </c>
+      <c r="L4" s="25">
+        <v>3</v>
+      </c>
+      <c r="M4" s="25">
+        <v>4</v>
+      </c>
+      <c r="N4" s="25">
+        <v>3</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2</v>
+      </c>
+      <c r="P4" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>2</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2</v>
+      </c>
+      <c r="S4" s="25">
+        <v>5</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <v>2</v>
+      </c>
+      <c r="V4" s="25">
+        <v>5</v>
+      </c>
+      <c r="W4" s="25">
+        <v>0</v>
+      </c>
+      <c r="X4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3</v>
-      </c>
-      <c r="O5" s="4">
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>2</v>
-      </c>
-      <c r="V5" s="5">
-        <v>3</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="6">
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>4</v>
+      </c>
+      <c r="K5" s="25">
+        <v>3</v>
+      </c>
+      <c r="L5" s="25">
+        <v>3</v>
+      </c>
+      <c r="M5" s="25">
+        <v>4</v>
+      </c>
+      <c r="N5" s="25">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25">
+        <v>2</v>
+      </c>
+      <c r="P5" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>2</v>
+      </c>
+      <c r="R5" s="25">
+        <v>2</v>
+      </c>
+      <c r="S5" s="25">
+        <v>5</v>
+      </c>
+      <c r="T5" s="25">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25">
+        <v>2</v>
+      </c>
+      <c r="V5" s="25">
+        <v>3</v>
+      </c>
+      <c r="W5" s="25">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
-        <v>4</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>2</v>
-      </c>
-      <c r="S6" s="2">
-        <v>3</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>2</v>
-      </c>
-      <c r="V6" s="5">
-        <v>3</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="6">
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="25">
+        <v>4</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>3</v>
+      </c>
+      <c r="J6" s="25">
+        <v>4</v>
+      </c>
+      <c r="K6" s="25">
+        <v>3</v>
+      </c>
+      <c r="L6" s="25">
+        <v>3</v>
+      </c>
+      <c r="M6" s="25">
+        <v>4</v>
+      </c>
+      <c r="N6" s="25">
+        <v>3</v>
+      </c>
+      <c r="O6" s="25">
+        <v>2</v>
+      </c>
+      <c r="P6" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>2</v>
+      </c>
+      <c r="R6" s="25">
+        <v>2</v>
+      </c>
+      <c r="S6" s="25">
+        <v>3</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0</v>
+      </c>
+      <c r="U6" s="25">
+        <v>2</v>
+      </c>
+      <c r="V6" s="25">
+        <v>3</v>
+      </c>
+      <c r="W6" s="25">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="25">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>5</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>2</v>
-      </c>
-      <c r="V7" s="5">
-        <v>3</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="6">
+      <c r="C7" s="25">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
+      <c r="E7" s="25">
+        <v>4</v>
+      </c>
+      <c r="F7" s="25">
+        <v>3</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>4</v>
+      </c>
+      <c r="K7" s="25">
+        <v>3</v>
+      </c>
+      <c r="L7" s="25">
+        <v>3</v>
+      </c>
+      <c r="M7" s="25">
+        <v>4</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3</v>
+      </c>
+      <c r="O7" s="25">
+        <v>2</v>
+      </c>
+      <c r="P7" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>2</v>
+      </c>
+      <c r="S7" s="25">
+        <v>5</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25">
+        <v>2</v>
+      </c>
+      <c r="V7" s="25">
+        <v>5</v>
+      </c>
+      <c r="W7" s="25">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="20" customHeight="1">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>3</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2</v>
-      </c>
-      <c r="V8" s="5">
-        <v>3</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="6">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="25">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>3</v>
+      </c>
+      <c r="J8" s="25">
+        <v>4</v>
+      </c>
+      <c r="K8" s="25">
+        <v>3</v>
+      </c>
+      <c r="L8" s="25">
+        <v>3</v>
+      </c>
+      <c r="M8" s="25">
+        <v>4</v>
+      </c>
+      <c r="N8" s="25">
+        <v>3</v>
+      </c>
+      <c r="O8" s="25">
+        <v>2</v>
+      </c>
+      <c r="P8" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>2</v>
+      </c>
+      <c r="S8" s="25">
+        <v>3</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>2</v>
+      </c>
+      <c r="V8" s="25">
+        <v>3</v>
+      </c>
+      <c r="W8" s="25">
+        <v>0</v>
+      </c>
+      <c r="X8" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>2</v>
-      </c>
-      <c r="S9" s="2">
-        <v>3</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2</v>
-      </c>
-      <c r="V9" s="5">
-        <v>3</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="20" customHeight="1">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>4</v>
-      </c>
-      <c r="N10" s="2">
-        <v>3</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>2</v>
-      </c>
-      <c r="S10" s="2">
-        <v>3</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>2</v>
-      </c>
-      <c r="V10" s="5">
-        <v>5</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="6">
+      <c r="C9" s="25">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25">
+        <v>3</v>
+      </c>
+      <c r="G9" s="25">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>3</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>3</v>
+      </c>
+      <c r="L9" s="25">
+        <v>3</v>
+      </c>
+      <c r="M9" s="25">
+        <v>4</v>
+      </c>
+      <c r="N9" s="25">
+        <v>3</v>
+      </c>
+      <c r="O9" s="25">
+        <v>2</v>
+      </c>
+      <c r="P9" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>2</v>
+      </c>
+      <c r="S9" s="25">
+        <v>5</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25">
+        <v>2</v>
+      </c>
+      <c r="V9" s="25">
+        <v>5</v>
+      </c>
+      <c r="W9" s="25">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="25">
         <v>0</v>
       </c>
     </row>
